--- a/Basirat_Al_Anbiya.xlsx
+++ b/Basirat_Al_Anbiya.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\رحوب\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\رحوب\Desktop\رحوب\رحوب مشروع\المشروع البحثي بصيرة الأنبياء\streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6CC3737-1704-4D3A-BA1E-7817E257D824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E028C834-BA2F-47DC-802A-A14863A036A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>التكبر هو أول خطوة للبُعد عن رحمةِ الله، كما فعل إبليس حين قال: أأسجد لمن خلقت طينًا. التواضع ليس ضعفًا، بل قوة تُقرّبك من الله وترفعُك في أعين خلقه. انحنِ لله تواضعًا، يرتفع قدرك في الدنيا والآخرة</t>
   </si>
   <si>
-    <t>قال تعالى: “قَالَ أَأَسْجُدُ لِمَنْ خَلَقْتَ طِينًا”</t>
-  </si>
-  <si>
     <t xml:space="preserve">التكبر </t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>سورة الصافات,(الآيتين144,143)</t>
   </si>
   <si>
-    <t>ذكر الله هو طوق النجاة الذي يحرر القلب من ثقل الكرب وظلمات الحياة,فهو يجمع بين التسبيح، الاستغفار، والاعتراف بالذنب، كما في دعاء يونس عليه السلام: ‘لا إله إلا أنت سبحانك إني كنت من الظالمين’، الذي كان مفتاح نجاته, اجعل الذكر رفيقك اليومي، فهو شفاء للقلب وسبيل للفرج مهما كانت التحديات</t>
-  </si>
-  <si>
     <t xml:space="preserve">فَلَوْلَا أَنَّهُ كَانَ مِنَ الْمُسَبِّحِينَ * لَلَبِثَ فِي بَطْنِهِ إِلَى يَوْمِ يُبْعَثُونَ </t>
   </si>
   <si>
@@ -338,9 +332,6 @@
     <t>سورة يوسف الآية 50</t>
   </si>
   <si>
-    <t>الدفاع عن الحق هو من أسمى صور الشجاعة والوعي, تأمل موقف يوسف عليه السلام، عندما أتيحت له فرصة الخروج من السجن، لم يقبل بذلك حتى تتبين براءته كاملة، فبذلك رفع مقامه وحفظ كرامته. تذكر أن مواجهة الظلم والدفاع عن نفسك لا يعني الغرور، بل هو مسؤولية تحمي بها قيمك وحقوقك. كن شجاعًا في طلب الحق، فهو طريقك لصون نفسك وتحقيق العدل</t>
-  </si>
-  <si>
     <t>وَقَالَ ٱلْمَلِكُ ٱئْتُونِى بِهِۦۖ فَلَمَّا جَآءَهُ ٱلرَّسُولُ قَالَ ٱرْجِعْ إِلَىٰ رَبِّكَ فَسْـَٔلْهُۥ مَا بَالُ ٱلنِّسْوَةِ ٱلَّـٰتِى قَطَّعْنَ أَيْدِيَهُنَّۚ إِنَّ رَبِّى بِكَيْدِهِنَّ عَلِيمٌ</t>
   </si>
   <si>
@@ -431,9 +422,6 @@
 </t>
   </si>
   <si>
-    <t>لا تجعل الأسباب المادية حدودًا لإيمانك بما يمكن أن يحققه الله لك. كما شكى زكريا ضعف الأسباب إلى ربه، فأكرمه الله ً، إن حاجاتك وأمنياتك لا تقف أمام قدرة الله. توكّل عليه بصدق، واسعَ بالأسباب دون أن تجعلها قيدًا على يقينك بحسن تدبيره.</t>
-  </si>
-  <si>
     <t>قَالَ رَبِّ إِنِّي وَهَنَ الْعَظْمُ مِنِّي وَاشْتَعَلَ الرَّأْسُ شَيْبًا وَلَمْ أَكُن بِدُعَائِكَ رَبِّ شَقِيًّا</t>
   </si>
   <si>
@@ -524,9 +512,6 @@
   </si>
   <si>
     <t>كتاب (صحيح الجامع), 4515</t>
-  </si>
-  <si>
-    <t>تذكر أن أخطاءك ليست دليل ضعف، بل هي فرصة للنمو والتطور. هدم نفسك أمام كل زلة يمنعك من رؤية جمال رحلتك البشرية. اجعل خطأك نقطة انطلاق، لا نهاية الطريق إن الكمال لله وحده، وأنت مخلوق لتتعلم من كل سقوط وتنهض أقوى. سامح نفسك لتكتمل صورتك الحقيقية</t>
   </si>
   <si>
     <t>“كل بني آدم خطاء، وخير الخطائين التوابون.”</t>
@@ -608,9 +593,6 @@
     <t>سورة الأنبياء ,الآية 87</t>
   </si>
   <si>
-    <t>حين ضاق صدر النبي يونس - عليه السلام - بموقف قومه، استعجل في الرحيل قبل أن يؤذن له، فوجد نفسه في ظلمت الحوت، وظلمت البحر، وظلمت الندم, لكنه حين أدرك أن الحكمة تتطلب صبراً، وأن القرارات المتسرعة قد تلقي بصاحبها في ابتلاء لم يكن في الحسبان، نادى ربه بإخلاص، فكان النداء مفتاح الفرج.</t>
-  </si>
-  <si>
     <t>وَذَا ٱلنُّونِ إِذ ذَّهَبَ مُغَاضِبًۭا فَظَنَّ أَن لَّن نَقْدِرَ عَلَيْهِ فَنَادَىٰ فِى ٱلظُّلُمَٰتِ أَن لَّآ إِلَٰهَ إِلَّآ أَنتَ سُبْحَٰنَكَ إِنِّى كُنتُ مِنَ ٱلظَّٰلِمِينَ</t>
   </si>
   <si>
@@ -761,9 +743,6 @@
     <t>سورة آل عمران ,190</t>
   </si>
   <si>
-    <t>في ليلةٍ خاشعة، قام النبي ﷺ يتدبر آيات الله حتى ابتلت الأرض بدموعه، وعندما سأله بلال رضي الله عنه، قال: “أفلا أكون عبدًا شكورًا؟ لقد نزلت علي الليلة آيات، ويلٌ لمن قرأها ولم يتفكر فيها.” (رواه ابن حبان) إن الغفلة عن آيات الله تُطفئ نور البصيرة، والتفكر فيها ليس ترفًا، بل ضرورة تحيي القلوب وتفتح أبواب الحكمة. تأمل في خلق الله، كما فعل نبيك ﷺ، ليمنحك ذلك بصيرة أعمق ورؤية أوضح لحقيقة الحياة.</t>
-  </si>
-  <si>
     <t>(إنَّ فِي خَلْقِ السَّمَاوَاتِ وَالأرْضِ وَاخْتِلَافِ اللَّيْلِ وَالنَّهَارِ لآيَاتٍ لِأُولِي الْأَلْبَابِ)</t>
   </si>
   <si>
@@ -927,9 +906,6 @@
   </si>
   <si>
     <t>كتاب(صحيح البخاري),13</t>
-  </si>
-  <si>
-    <t>الأنانية قيد خفي، تمنح صاحبها مكاسب لحظية لكنها تحرمه من أعمق معاني الحياة. فالإنسان لا يُقاس بما يملك، بل بما يضيف. من عاش لنفسه فقط، ضاقت دنياه مهما اتسعت، ومن وسّع قلبه للآخرين، وجد في العطاء ثراءً لا تمنحه المصالح الضيقة. تأمل الكون من حولك، الشمس تضيء لغيرها، والأنهار تجري لتمد الحياة، والأشجار تثمر لغيرها، ومع ذلك، تظل نابضة بالحياة. فالحياة الحقيقية ليست فيما نحتفظ به لأنفسنا، بل فيما نتركه من أثر.</t>
   </si>
   <si>
     <t>“لا يُؤْمِنُ أَحَدُكُمْ حتَّى يُحِبَّ لأَخِيهِ ما يُحِبُّ لِنَفْسِهِ”</t>
@@ -1092,9 +1068,6 @@
     <t>صحيح البخاري (3034)، صحيح مسلم (1803)</t>
   </si>
   <si>
-    <t>كان النبي ﷺ قدوةً في العمل الجماعي والمشاركة الفعالة، فلم يكن جالسًا يُصدر الأوامر، بل كان يشارك أصحابه بنفسه في بناء المسجد وحفر الخندق، رغم أنه كان قائد الأمة. إن العزلة عن الجماعة تفقد الإنسان فرص النمو والتطور، بينما المشاركة الجماعية تعزز روح الفريق، وتقوي الروابط، وتكشف عن مهارات لم يكن الشخص يدركها في نفسه. تذكر أن العمل مع الآخرين ليس مجرد تعاون، بل فرصة لتعلم القيادة، وبناء العلاقات، وصنع التأثير الحقيقي في المجتمع.</t>
-  </si>
-  <si>
     <t>عن البراء بن عازب رضي الله عنه، قال: رأيت النبي ﷺ يوم الخندق وهو ينقل التراب حتى وارى التراب شعر صدره، وكان رجلًا كثير الشعر</t>
   </si>
   <si>
@@ -1148,9 +1121,6 @@
   </si>
   <si>
     <t>صحيح البخاري (893)</t>
-  </si>
-  <si>
-    <t>الإيمان هو اليقين الذي يملأ القلب نوراً ويمنح الروح سكينة ويجعل صاحبه ثابتاً في كل تقلبات الحياة . إن أردت لأهل بيتك أن يسيروا على درب الطاعة، فكن أنت أول السائرين بصدق، لا بمجرد التوجيه. لا تطلب من أبنائك الصلاة وأنت تتهاون فيها، ولا تحدثهم عن الصدق وأنت تخالفه. الدين يُغرس بالمواقف اليومية، في رحمتك عند الخطأ، وصبرك عند الغضب، وعفوك عند الزلّة. حين يرون فيك طمأنينة الإيمان، سيبحثون عنه بأنفسهم دون أن تطلب منهم ذلك.</t>
   </si>
   <si>
     <t xml:space="preserve">عن عبد الله بن عمر رضي الله عنهما، قال: قال رسول الله ﷺ:
@@ -1239,10 +1209,6 @@
     <t>صحيح البخاري (5991)</t>
   </si>
   <si>
-    <t xml:space="preserve">صلة الرحم عبادة لا ترتبط بحُسن المقابل، بل بصِدق النية وعلو النفس, قد يخاف الإنسان من الأذى أو الجفاء، فينقطع، لكن من وُفّق للوصال رغم الخوف، فقد بلغ منزلة الكرم في القلب والثبات في الخُلق,لا تصل لأجلهم، بل لأجل الله،وما كان لله، لا يضيع أجره، ولو قوبل بالجفاء.
-</t>
-  </si>
-  <si>
     <t>قال رسول الله ﷺ: "ليس الواصل بالمكافئ، ولكن الواصل الذي إذا قُطعت رحمه وصلها."</t>
   </si>
   <si>
@@ -1431,10 +1397,6 @@
     <t>صحيح البخاري (  5997 )</t>
   </si>
   <si>
-    <t>لوقت العاطفي داخل الأسرة ليس وقتًا فائضًا أو هامشيًا، بل هو من أعظم وسائل البناء النفسي والعاطفي بين أفراد العائلة. بضع لحظات من اهتمام حقيقي، وابتسامة صادقة، وكلمة دافئة، قد تعيد التوازن إلى قلب متعب، وتمنح أحدهم شعورًا عميقًا بالحب والانتماء.كل فرد في الأسرة بحاجة إلى من يصغي له، من يحتضنه معنويًا، من يُشعره أنه مهم ومحبوب.
-فالأسرة التي تمنح وقتًا عاطفيًا صادقًا، تُخرِج أفرادًا أصحاء نفسيًا، أقوياء في الحياة، وعطوفين على من حولهم.</t>
-  </si>
-  <si>
     <t>عن أبي هريرة رضي الله عنه قال:قبّل رسولُ اللهِ صلى الله عليه وسلم الحسنَ بن عليٍّ، وعنده الأقرعُ بنُ حابسٍ التميميُّ جالسًا، فقال الأقرعُ: إن لي عشرةً من الولدِ ما قبّلتُ منهم أحدًا.فنظر إليه رسولُ اللهِ صلى الله عليه وسلم، فقال:من لا يَرحُم لا يُرحَم</t>
   </si>
   <si>
@@ -1594,15 +1556,6 @@
   </si>
   <si>
     <t>سورة يس ,الآية 82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">حين يصعب التفاهم، ويبدو شريك الحياة متمسكًا برأيه، لا تيأس من الإصلاح ولا تُصعّد الخلاف.
-تحدث بلُطف، واطرح فكرتك برقي، وادعُ الله أن يُلين القلوب، ويهدي العقول.
-التغيير الحقيقي لا يصنعه الجدل، بل يصنعه الدعاء، والصبر، وحُسن التوكل.
-وإن ضاقت بك الوسائل، ففوّض الأمر لله، فهو وحده القادر،
-{إِنَّمَا أَمْرُهُ إِذَا أَرَادَ شَيْئًا أَنْ يَقُولَ لَهُ كُنْ فَيَكُونُ}
-ثق أن الله إذا أراد صلاح الحال، أصلحه بما لا تتوقّعه، فقط تمسّك بالنية الطيبة، واهدأ... فالله يعلم.
-</t>
   </si>
   <si>
     <t>{إِنَّمَا أَمْرُهُ إِذَا أَرَادَ شَيْئًا أَنْ يَقُولَ لَهُ كُنْ فَيَكُونُ}</t>
@@ -1624,13 +1577,6 @@
   </si>
   <si>
     <t>صحيح الجامع (  3314 )</t>
-  </si>
-  <si>
-    <t>يبفي عالم تتسارع فيه الأحداث وتتزاحم فيه الانشغالات، قد يغيب عنا أن من أولى الناس باهتمامنا وتقديرنا هم أهلونا، شركاء لحظاتنا اليومية، وسندنا في الحياة.
-لقد قدّم النبي ﷺ أرقى نموذج في حسن المعاملة حين قال: "وأنا خيركم لأهلي"، فجعل مقياس الخير الحقيقي هو في التعامل مع من نعيش معهم.
-إن تخصيص وقت صادق بعيد عن المشتتات – خصوصًا الهواتف – هو رسالة وفاء واهتمام، تُشعر الطرف الآخر بمكانته في القلب، وتبني جسورًا من الرحمة والمودة.
-وإننا حين نحسن إلى أهلنا، نرتقي في إنسانيتنا، ونقترب من هدي خير البشر ﷺ.
-إن التواصل هو في ذاته عبادة، وأثره في النفوس لا يُقدّر بثمن.</t>
   </si>
   <si>
     <t>عن النبي صلى الله عليه وسلم قال: "خَيْرُكُمْ خَيْرُكُمْ لِأَهْلِهِ، وَأَنَا خَيْرُكُمْ لِأَهْلِي."</t>
@@ -1819,6 +1765,63 @@
 "أن فاطمة عليها السلام أتت النبي صلى الله عليه وسلم تسأله خادمًا، فقال: ألا أدلكِ على ما هو خير لك ِمنه ؟ تسبحين الله عند منامك َثلاثًا وثلاثين، وتحمدين الله ثلاثًا وثلاثين، وتكبرين الله أربعٌوثلاثون, فما تركتها بعدُ.قيل ولا ليلة صِفين؟ قال :ولا ليلةَ صِفين"
 مرجع الدليل: صحيح البخاري (  5362 )
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  “قَالَ أَأَسْجُدُ لِمَنْ خَلَقْتَ طِينًا”</t>
+  </si>
+  <si>
+    <t>ذكر الله هو طوق النجاة الذي يحرر القلب من ثقل الكرب وظلمات الحياة,كما في دعاء يونس عليه السلام: ‘لا إله إلا أنت سبحانك إني كنت من الظالمين’، الذي كان مفتاح نجاته, اجعل الذكر رفيقك اليومي، فهو شفاء للقلب وسبيل للفرج مهما كانت التحديات</t>
+  </si>
+  <si>
+    <t>الدفاع عن الحق هو من أسمى صور الشجاعة والوعي, تأمل موقف يوسف عليه السلام، عندما أتيحت له فرصة الخروج من السجن، لم يخرج  حتى تتبين براءته كاملة، فبذلك رفع مقامه وحفظ كرامته. تذكر أن مواجهة الظلم والدفاع عن نفسك لا يعني الغرور، بل هو مسؤولية تحمي بها قيمك وحقوقك. كن شجاعًا في طلب الحق، فهو طريقك لصون نفسك وتحقيق العدل</t>
+  </si>
+  <si>
+    <t>لا تجعل الأسباب المادية حدودًا لإيمانك بما يمكن أن يحققه الله لك. كما شكى زكريا ضعف الأسباب إلى ربه، فأكرمه الله ً، إن حاجاتك وأحلامك لا تقف أمام قدرة الله. توكّل عليه بصدق، واسعَ بالأسباب دون أن تجعلها قيدًا على يقينك بحسن تدبيره.</t>
+  </si>
+  <si>
+    <t>تذكر أن أخطاءك ليست دليل ضعف، بل هي فرصة للنمو والتطور. اجعل خطأك نقطة انطلاق، لا نهاية الطريق إن الكمال لله وحده، وأنت مخلوق لتتعلم من كل سقوط وتنهض أقوى.</t>
+  </si>
+  <si>
+    <t>حين ضاق صدر النبي يونس - عليه السلام - بموقف قومه، استعجل في الرحيل قبل أن يؤذن له، فوجد نفسه في ظلمات , لكنه حين أدرك أن الحكمة تتطلب صبراً، وأن القرارات المتسرعة قد تلقي بصاحبها في ابتلاء لم يكن في الحسبان، نادى ربه بإخلاص، فكان النداء مفتاح الفرج.</t>
+  </si>
+  <si>
+    <t>التفكر في آيات الله عبادة القلوب الحيّة.
+كان النبي ﷺ إذا نظر إلى السماء قال:
+(إن في خلق السماوات والأرض واختلاف الليل والنهار لآيات لأولي الألباب).
+فلا تهمل لحظات التأمل؛ ففيها تستشعر عظمة الله الذي رفع السماوات بغير عمد، وبسط الأرض، وقدّر الليل والنهار بحكمة لا يعتريها خلل.</t>
+  </si>
+  <si>
+    <t>الأنانية قيد خفي، تمنح صاحبها مكاسب لحظية لكنها تحرمه من أعمق معاني الحياة. فالإنسان لا يُقاس بما يملك، بل بما يضيف. من عاش لنفسه فقط، ضاقت دنياه مهما اتسعت، ومن وسّع قلبه للآخرين، وجد في العطاء ثراءً لا تمنحه المصالح الضيقة.</t>
+  </si>
+  <si>
+    <t>كان النبي ﷺ قدوةً في العمل الجماعي والمشاركة الفعالة، كان يشارك أصحابه بنفسه في بناء المسجد وحفر الخندق، رغم أنه كان قائد الأمة. إن العزلة عن الجماعة تفقد الإنسان فرص النمو والتطور، بينما المشاركة الجماعية تعزز روح الفريق، وتقوي الروابط، وتكشف عن مهارات لم يكن الشخص يدركها في نفسه. تذكر أن العمل مع الآخرين ليس مجرد تعاون، بل فرصة لتعلم القيادة، وبناء العلاقات، وصنع التأثير الحقيقي في المجتمع.</t>
+  </si>
+  <si>
+    <t>الإيمان هو اليقين الذي يملأ القلب نوراً ويمنح الروح سكينة ويجعل صاحبه ثابتاً في كل تقلبات الحياة . إن أردت لأهل بيتك أن يسيروا على درب الطاعة، فكن أنت أول السائرين بصدق، لا بمجرد التوجيه . الدين يُغرس بالمواقف اليومية، في رحمتك عند الخطأ، وصبرك عند الغضب، وعفوك عند الزلّة. حين يرون فيك طمأنينة الإيمان، سيبحثون عنه بأنفسهم دون أن تطلب منهم ذلك.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صلة الرحم عبادة لا ترتبط بحُسن المقابل، بل بصِدق النية وعلو النفس, قد يخاف الإنسان من الأذى أو الجفاء، فينقطع,صِلوا الأرحام لأجل الله،وما كان لله، لا يضيع أجره، ولو قوبل بالجفاء.
+</t>
+  </si>
+  <si>
+    <t>الوقت العاطفي داخل الأسرة ليس وقتًا فائضًا أو هامشيًا، بل هو من أعظم وسائل البناء النفسي والعاطفي بين أفراد العائلة. بضع لحظات من اهتمام حقيقي، وابتسامة صادقة، وكلمة دافئة، قد تعيد التوازن إلى قلب متعب، وتمنح أحدهم شعورًا عميقًا بالحب والانتماء.كل فرد في الأسرة بحاجة إلى من يصغي له، من يحتضنه معنويًا، من يُشعره أنه مهم ومحبوب.
+فالأسرة التي تمنح وقتًا عاطفيًا صادقًا، تُخرِج أفرادًا أصحاء نفسيًا، أقوياء في الحياة، وعطوفين على من حولهم.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">حين يصعب التفاهم، ويبدو شريك الحياة متمسكًا برأيه، لا تيأس من الإصلاح ولا تُصعّد الخلاف.
+تحدث بلُطف، واطرح فكرتك برقي، وادعُ الله أن يُلين القلوب، ويُنير العقول.
+التغيير الحقيقي لا يصنعه الجدل، بل يصنعه الدعاء، والصبر، وحُسن التوكل.
+وإن ضاقت بك الوسائل، ففوّض الأمر لله، فهو وحده القادر،
+{إِنَّمَا أَمْرُهُ إِذَا أَرَادَ شَيْئًا أَنْ يَقُولَ لَهُ كُنْ فَيَكُونُ}
+ثق أن الله إذا أراد صلاح الحال، أصلحه بما لا تتوقّعه، فقط تمسّك بالنية الطيبة، واهدأ... فالله يعلم.
+</t>
+  </si>
+  <si>
+    <t>في عالم تتسارع فيه الأحداث وتتزاحم فيه الانشغالات، قد يغيب عنا أن من أولى الناس باهتمامنا وتقديرنا هم أهلونا، شركاء لحظاتنا اليومية، وسندنا في الحياة.
+لقد قدّم النبي ﷺ أرقى نموذج في حسن المعاملة حين قال: "وأنا خيركم لأهلي"، فجعل مقياس الخير الحقيقي هو في التعامل مع من نعيش معهم.
+إن تخصيص وقت صادق بعيد عن المشتتات – خصوصًا الهواتف – هو رسالة وفاء واهتمام، تُشعر الطرف الآخر بمكانته في القلب، وتبني جسورًا من الرحمة والمودة.
+وإننا حين نحسن إلى أهلنا، نرتقي في إنسانيتنا، ونقترب من هدي خير البشر ﷺ.
+إن التواصل هو في ذاته عبادة، وأثره في النفوس لا يُقدّر بثمن.</t>
   </si>
 </sst>
 </file>
@@ -1874,10 +1877,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2183,13 +2189,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="60" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="47.4140625" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="54.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.75" customWidth="1"/>
+    <col min="6" max="6" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2280,1676 +2290,1676 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
         <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
         <v>40</v>
       </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="168" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>49</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
         <v>50</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
         <v>52</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>53</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
         <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>425</v>
+      </c>
+      <c r="C12" t="s">
         <v>57</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>59</v>
-      </c>
-      <c r="D12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
         <v>62</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>63</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
         <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
         <v>67</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>68</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
         <v>69</v>
-      </c>
-      <c r="D14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" t="s">
         <v>72</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>73</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
         <v>74</v>
-      </c>
-      <c r="D15" t="s">
-        <v>75</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
         <v>77</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>78</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
         <v>79</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>426</v>
+      </c>
+      <c r="C17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D17" t="s">
         <v>82</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
         <v>83</v>
-      </c>
-      <c r="C17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" t="s">
-        <v>85</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="s">
         <v>87</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
         <v>88</v>
-      </c>
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" t="s">
         <v>92</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
         <v>93</v>
-      </c>
-      <c r="C19" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="s">
         <v>97</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
         <v>98</v>
-      </c>
-      <c r="C20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" t="s">
         <v>102</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
         <v>103</v>
-      </c>
-      <c r="C21" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" t="s">
-        <v>105</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>427</v>
       </c>
       <c r="C22" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
         <v>111</v>
-      </c>
-      <c r="B23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
         <v>116</v>
-      </c>
-      <c r="B24" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" t="s">
-        <v>118</v>
-      </c>
-      <c r="D24" t="s">
-        <v>119</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
         <v>121</v>
-      </c>
-      <c r="B25" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" t="s">
-        <v>123</v>
-      </c>
-      <c r="D25" t="s">
-        <v>124</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>123</v>
+      </c>
+      <c r="C26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
         <v>126</v>
-      </c>
-      <c r="B26" t="s">
-        <v>127</v>
-      </c>
-      <c r="C26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>428</v>
       </c>
       <c r="C27" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" t="s">
         <v>133</v>
       </c>
-      <c r="D28" t="s">
-        <v>138</v>
-      </c>
       <c r="E28" t="s">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B29" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C29" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C30" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D30" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B31" t="s">
-        <v>151</v>
+        <v>429</v>
       </c>
       <c r="C31" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D31" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B32" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C32" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D33" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B34" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B35" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C35" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D35" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B36" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D36" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C37" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D37" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" t="s">
+        <v>182</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="98" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="C39" t="s">
         <v>185</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D39" t="s">
         <v>186</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
         <v>187</v>
-      </c>
-      <c r="D38" t="s">
-        <v>188</v>
-      </c>
-      <c r="E38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>190</v>
-      </c>
-      <c r="B39" t="s">
-        <v>191</v>
-      </c>
-      <c r="C39" t="s">
-        <v>192</v>
-      </c>
-      <c r="D39" t="s">
-        <v>193</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B40" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C40" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D40" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C41" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="D41" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B42" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C42" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D42" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B43" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C43" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D43" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B44" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C44" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D44" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B45" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C45" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D45" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="C46" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D46" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B47" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C47" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="D47" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B48" t="s">
-        <v>234</v>
+        <v>431</v>
       </c>
       <c r="C48" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D48" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B49" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C49" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D49" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B50" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C50" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="D50" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B51" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C51" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D51" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B52" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C52" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D52" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B53" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C53" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D53" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B54" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C54" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D54" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E54" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F54" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B55" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C55" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D55" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E55" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F55" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B56" t="s">
-        <v>275</v>
+        <v>432</v>
       </c>
       <c r="C56" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D56" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="E56" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F56" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B57" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="C57" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D57" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E57" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F57" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B58" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C58" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="D58" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="E58" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F58" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B59" t="s">
-        <v>290</v>
+        <v>433</v>
       </c>
       <c r="C59" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D59" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="E59" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F59" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B60" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="C60" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="D60" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E60" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F60" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B61" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C61" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D61" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E61" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F61" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C62" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D62" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E62" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F62" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>309</v>
-      </c>
-      <c r="B63" t="s">
-        <v>310</v>
+        <v>299</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="C63" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="D63" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E63" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F63" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B64" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C64" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="D64" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="E64" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F64" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B65" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C65" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D65" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E65" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F65" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B66" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="C66" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D66" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="E66" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F66" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B67" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C67" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="D67" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="E67" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F67" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B68" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C68" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D68" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="E68" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F68" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B69" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C69" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="D69" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="E69" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F69" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B70" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="C70" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D70" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="E70" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F70" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B71" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="C71" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D71" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="E71" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F71" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B72" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="C72" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="D72" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="E72" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F72" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="126" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>358</v>
-      </c>
-      <c r="B73" t="s">
-        <v>359</v>
+        <v>347</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="C73" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="D73" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="E73" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F73" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B74" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="C74" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="D74" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="E74" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F74" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="B75" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C75" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="D75" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="E75" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F75" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="B76" t="s">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="C76" t="s">
-        <v>375</v>
+        <v>363</v>
       </c>
       <c r="D76" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="E76" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F76" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="B77" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="C77" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="D77" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="E77" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F77" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="B78" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C78" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D78" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="E78" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F78" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="B79" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="C79" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D79" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="E79" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F79" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
+        <v>381</v>
+      </c>
+      <c r="B80" t="s">
+        <v>382</v>
+      </c>
+      <c r="C80" t="s">
+        <v>383</v>
+      </c>
+      <c r="D80" t="s">
+        <v>384</v>
+      </c>
+      <c r="E80" t="s">
+        <v>283</v>
+      </c>
+      <c r="F80" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="154" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>386</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="C81" t="s">
+        <v>387</v>
+      </c>
+      <c r="D81" t="s">
+        <v>388</v>
+      </c>
+      <c r="E81" t="s">
+        <v>283</v>
+      </c>
+      <c r="F81" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="182" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>390</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C82" t="s">
+        <v>391</v>
+      </c>
+      <c r="D82" t="s">
+        <v>392</v>
+      </c>
+      <c r="E82" t="s">
+        <v>283</v>
+      </c>
+      <c r="F82" t="s">
         <v>393</v>
-      </c>
-      <c r="B80" t="s">
-        <v>394</v>
-      </c>
-      <c r="C80" t="s">
-        <v>395</v>
-      </c>
-      <c r="D80" t="s">
-        <v>396</v>
-      </c>
-      <c r="E80" t="s">
-        <v>293</v>
-      </c>
-      <c r="F80" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>398</v>
-      </c>
-      <c r="B81" t="s">
-        <v>399</v>
-      </c>
-      <c r="C81" t="s">
-        <v>400</v>
-      </c>
-      <c r="D81" t="s">
-        <v>401</v>
-      </c>
-      <c r="E81" t="s">
-        <v>293</v>
-      </c>
-      <c r="F81" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>403</v>
-      </c>
-      <c r="B82" t="s">
-        <v>404</v>
-      </c>
-      <c r="C82" t="s">
-        <v>405</v>
-      </c>
-      <c r="D82" t="s">
-        <v>406</v>
-      </c>
-      <c r="E82" t="s">
-        <v>293</v>
-      </c>
-      <c r="F82" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="B83" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="C83" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="D83" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="E83" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F83" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B84" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="C84" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D84" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="E84" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F84" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="B85" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="C85" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="D85" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="E85" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F85" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B86" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="C86" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="D86" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="B87" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="C87" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="D87" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="E87" t="s">
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="B88" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="C88" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="D88" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="E88" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F88" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/Basirat_Al_Anbiya.xlsx
+++ b/Basirat_Al_Anbiya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\رحوب\Desktop\رحوب\رحوب مشروع\المشروع البحثي بصيرة الأنبياء\streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E028C834-BA2F-47DC-802A-A14863A036A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1986A165-E486-4BC2-96A0-496FE72F655E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="437">
   <si>
     <t>مرجع الدليل</t>
   </si>
@@ -217,9 +217,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> كتاب (صحيح البخاري) , 6029</t>
-  </si>
-  <si>
     <t>انتقاء الكلمات هو انعكاس لروحك وقلبك. الكلمات الجارحة لا تترك سوى الندم والجرح في النفوس، بينما الكلمات الطيبة تصلح القلوب وتبني العلاقات. تعلم من خلق النبي صلى الله عليه وسلم، الذي كان ينتقي كلماته ليضيء بها القلوب، حتى في المواقف الصعبة, اجعل كلماتك جسرًا للحب والإصلاح، لأن الكلمة الطيبة لا تكلف شيئًا، لكنها تزرع أثرًا لا ينسى</t>
   </si>
   <si>
@@ -291,9 +288,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> كتاب (صحيح البخاري) ,1</t>
-  </si>
-  <si>
     <t>الإخلاص لله وحده هو مفتاح القبول والنجاح الذي يدوم, تأمل دأب الأنبياء عليهم السلام، الذين لم يعملوا لإرضاء الناس، بل وجهوا قلوبهم لله فأثمرت أفعالهم نجاحًا مبهرًا ورسالة خالدة, اجعل نيتك لله، وسترى كيف تتحول جهودك إلى نور يُضيء حياتك وحياة من حولك</t>
   </si>
   <si>
@@ -345,9 +339,6 @@
 </t>
   </si>
   <si>
-    <t>الذاريات,56</t>
-  </si>
-  <si>
     <t>تذكَّر أن غايتك العظمى في الحياة ليست نيل رضا الناس، بل تحقيق رضا الله الذي خلقك لعبادته وحده. اجعل قلبك متعلّقًا به، وكن على يقين بأن رضا الناس غاية لا تُدرك، فإن أرضيت الله أرضى عنك الناس ولو كرهوا، وإن سعيت لإرضائهم على حساب طاعته، خسرت الدنيا والآخرة.نبينا محمد صلى الله على وسلم عندما بدأ الدعوه إلى الله كان بعض أعمامهُ معترضين لذا سر بثبات نحو هدفك الأسمى، وكن واثقًا أن رضا الله هو مفتاح الطمأنينة الحقيقية.</t>
   </si>
   <si>
@@ -454,9 +445,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> كتاب (صحيح البخاري) , 7504</t>
-  </si>
-  <si>
     <t>سوء الظن بالله والتشاؤم يقيدان الروح ويحجبان عنك الخير. تفاءل بربك الذي كتب لك الرحمة واليسر، وثق أن تدبيره أعظم مما تراه عيناك. الأحداث ليست دائمًا كما تبدو، ورب الخير لا يأتي إلا بخير. اجعل ظنك بالله حسنًا، وواجه الأفكار السلبية بيقين بأن لطف الله أقرب مما تظن.</t>
   </si>
   <si>
@@ -511,9 +499,6 @@
 </t>
   </si>
   <si>
-    <t>كتاب (صحيح الجامع), 4515</t>
-  </si>
-  <si>
     <t>“كل بني آدم خطاء، وخير الخطائين التوابون.”</t>
   </si>
   <si>
@@ -525,9 +510,6 @@
 الدليل: “كل بني آدم خطاء، وخير الخطائين التوابون.”
 مرجع الدليل: كتاب (صحيح الجامع), 4515
 </t>
-  </si>
-  <si>
-    <t>صحيح الجامع (4515)</t>
   </si>
   <si>
     <t xml:space="preserve">من طبيعة البشر أن يُخطئوا ويقعوا في الزلل,إذا كان الإنسان يذنب في علاقته مع الله — الذي خلقه، ورزقه، وحماه — فكيف نُطالبه ألا يخطئ في علاقاته مع البشر؟
@@ -571,9 +553,6 @@
 </t>
   </si>
   <si>
-    <t>كتاب(صحيح البخاري ),6412</t>
-  </si>
-  <si>
     <t>إدارة الوقت ليست مجرد مهارة، بل هي فن صناعة الحياة. تأمل في نهج النبي محمد صلى الله عليه وسلم، الذي وزع وقته بحكمة بين أسرته، دعوته، وأصحابه، وترك أثراً خالداً في كل جانب, اجعل وقتك انعكاساً لأولوياتك، حيث التوازن هو سر النجاح، والعمل المنظم هو مفتاح التميز. لا تدع الفراغ يقودك، بل كن أنت القائد لوقتك، واجعل كل دقيقة استثماراً يعكس قيمك ويحقق أهدافك</t>
   </si>
   <si>
@@ -606,9 +585,6 @@
 </t>
   </si>
   <si>
-    <t>كتاب(صحيح البخاري ),6114</t>
-  </si>
-  <si>
     <t>السيادة على النفس أعظم من السيادة على الناس، وكما كان النبي ﷺ حليمًا عند الأذى، كن أنت سيد انفعالك, فالقوة الحقيقية ليست في غلبة الآخرين، بل في غلبة النفس عند الغضب</t>
   </si>
   <si>
@@ -625,9 +601,6 @@
 </t>
   </si>
   <si>
-    <t>كتاب (سُنن لإبن ماجه),4008</t>
-  </si>
-  <si>
     <t xml:space="preserve">احتقار الذات حجاب يحجب عنك نور إمكانياتك. النبي ﷺ رأى العظمة في القلوب قبل الألقاب، فلا تنتظر تصديق الآخرين لقيمتك—اكتشفها أنت أولًا، فكل عظيم بدأ بثقته في نفسه قبل أن يراه الناس
 </t>
   </si>
@@ -645,9 +618,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> كتاب (صحيح البخاري) ,6369</t>
-  </si>
-  <si>
     <t>التسويف يسرق عمرك بصمت، والكسل يدفنك وأنت حي, النبي ﷺ لم ينتظر الظروف المثالية، بل صنع الإنجاز بالهمة والاجتهاد, تحرّك الآن، فكل إنجاز عظيم بدأ بخطوة صغيرة لم تؤجل</t>
   </si>
   <si>
@@ -683,9 +653,6 @@
 </t>
   </si>
   <si>
-    <t>كتاب (صحيح مسلم),2664</t>
-  </si>
-  <si>
     <t>الأنبياء عليهم السلام واجهوا التحديات والضغوطات النفسية والكلام الجارح، لكنهم لم يتقمصوا دور الضحية. بل توكلوا على الله، واستعانوا به، وساروا في طريق النجاح اقتدِ بهم، ولا تدع الصعوبات تُثنيك؛ فالتحديات تصنع العظماء</t>
   </si>
   <si>
@@ -721,9 +688,6 @@
 </t>
   </si>
   <si>
-    <t>كتاب (صحيح البخاري),6133</t>
-  </si>
-  <si>
     <t>تجاهل دروس الماضي يُبقي الإنسان في دائرة الأخطاء ذاتها، كما حدث مع الأمم التي كذبت رسلها، فلم يعتبروا بمن سبقهم وساروا على نفس الطريق. الحكمة الحقيقية تكمن في استيعاب تجارب الماضي وتحويلها إلى وقودٍ للنضج والتقدم، فالتاريخ ليس مجرد سرد للأحداث، بل مرآةٌ تعكس لنا طريق الصواب قبل أن نكرر الأخطاء.</t>
   </si>
   <si>
@@ -847,9 +811,6 @@
 </t>
   </si>
   <si>
-    <t>كتاب(صحيح البخاري),6487</t>
-  </si>
-  <si>
     <t>ليس كل ما تميل إليه النفس صوابًا. قد يؤدي الإنسان فرائضه، لكنه ينساق خلف هواه دون وعي، متأثرًا بتيارات عابرة. الحكمة أن تقود نفسك، لا أن يقودك هواك، وأن تزن الأمور بعقل واعٍ لا برغبة عابرة، حين راودت امرأة ُالعزيز يوسف عليه السلام، اختار العفة رغم المغريات، فعصمهُ الله, إن النفس أمارة بالسوء إن لم تُهذب، والعاقل من يجعل بصيرته حَكمًا، لا مزاجه وتقلبات العصر.</t>
   </si>
   <si>
@@ -866,9 +827,6 @@
 </t>
   </si>
   <si>
-    <t>كتاب(صحيح البخاري),1968</t>
-  </si>
-  <si>
     <t>العطاء قيمة عظيمة، لكنه لا يكتمل إلا بتوازن يراعي حق النفس. فكما يحتاج الآخرون إلى رعايتك، تحتاج روحك إلى لحظة هدوء تجدّد فيها قوتك. تخصيص وقتٍ لنفسك ليس رفاهية، بل ضرورة تضمن استمرار عطائك بروح صافية وقلب ممتلئ. اجعل لك ساعةً في يومك تُنصت فيها لذاتك، فالتوازن بين الأخذ والعطاء هو سر العطاء المستدام.</t>
   </si>
   <si>
@@ -905,9 +863,6 @@
 </t>
   </si>
   <si>
-    <t>كتاب(صحيح البخاري),13</t>
-  </si>
-  <si>
     <t>“لا يُؤْمِنُ أَحَدُكُمْ حتَّى يُحِبَّ لأَخِيهِ ما يُحِبُّ لِنَفْسِهِ”</t>
   </si>
   <si>
@@ -958,9 +913,6 @@
 الدليل: يَا أَيُّهَا ٱلَّذِينَ ءَامَنُوا ٱجْتَنِبُوا كَثِيرًۭا مِّنَ ٱلظَّنِّ إِنَّ بَعْضَ ٱلظَّنِّ إِثْمٌۭ وَلَا تَجَسَّسُوا وَلَا يَغْتَب بَّعْضُكُم بَعْضًۭا
 مرجع الدليل: سورة الحجرات,الآية 12
 </t>
-  </si>
-  <si>
-    <t>كتاب(صحيح الجامع),73</t>
   </si>
   <si>
     <t>النبي محمد ﷺ أعظم معلم للبشرية، بنور هدايته أشرقت القلوب، وبرحمته توحدت الصفوف، ورغم ذلك لم يُكتب له البقاء، كما أخبره جبريل: “فإنك ميت” فكيف بمن دونه؟ كل ما في الدنيا إلى زوال، فلا تجعل قلبك رهينة لما يفنى، ولا تتعلق إلا بالله الباقي. فالعاقل من أحب بحكمة، وعمل بصيرة، وترك أثرًا يبقى بعد رحيله، كما بقيت سيرة خير الخلق ﷺ نبراسًا يضيء الدروب.</t>
@@ -981,9 +933,6 @@
 </t>
   </si>
   <si>
-    <t>كتاب(صحيح البخاري),2872</t>
-  </si>
-  <si>
     <t>حين تظن أنك في القمة بلا منازع، تذكَّر أن دوام الحال من المحال. لا انتصار يبقى للأبد، ولا خسارة تدوم، فالدنيا تجري بموازين لا يحكمها البشر. إن سبقك أحد بعد طول تفوق، فلا تجزع، وإن خسرت موقعًا كنت تتصدره، فلا تيأس، بل اجعل من كل تقلب وقودًا لنضجك، لا لضعفك.</t>
   </si>
   <si>
@@ -999,9 +948,6 @@
 الدليل: عن أنس بن مالك رضي الله عنه قال: “كانت ناقة لرسول الله ﷺ تُسمى العضباء، وكانت لا تُسبق، فجاء أعرابي على قعود له فسبقها، فشق ذلك على المسلمين، فقال رسول الله ﷺ: ‘حق على الله أن لا يرتفع شيء من الدنيا إلا وضعه’.”
 مرجع الدليل: كتاب(صحيح البخاري),2872
 </t>
-  </si>
-  <si>
-    <t>سورةاالبقرةالآية 155</t>
   </si>
   <si>
     <t>الحياة لا تخلو من الابتلاءات، فهي ميدان اختبار يصقل النفوس، ويهذب الأرواح. والحزن بعد الفقد شعور طبيعي يسكن القلوب الرحيمة، لكن الإقامة فيه طويلاً تسرق من الإنسان أيامه وتطفئ بريق رسالته في الحياة.
@@ -1024,9 +970,6 @@
 </t>
   </si>
   <si>
-    <t>(أخرجه البخاري 1240، ومسلم 2162)</t>
-  </si>
-  <si>
     <t>كان النبي ﷺ يُرشد أصحابه إلى أن العلاقات الاجتماعية الحقيقية لا تُبنى على المجاملات الظاهرة فقط، بل على التفاعل العميق والمشاركة الفعلية في أوقات الفرح والحزن، الصحة والمرض، الحاجة والوفاء. فالتواصل الصادق هو الذي يرسّخ الودّ، ويعكس صدق الانتماء والاهتمام كن حاضرًا حين يحتاجك الآخرون، فالحضور في اللحظات المهمة هو الذي يصنع أثرًا لا يُنسى.</t>
   </si>
   <si>
@@ -1081,9 +1024,6 @@
 </t>
   </si>
   <si>
-    <t>صحيح مسلم (2162)</t>
-  </si>
-  <si>
     <t>كان النبي ﷺ قدوة في تقبل النقد بصدر رحب، فلم يكن يغضب أو يرد بحدة، بل كان يُحسن الاستماع، ويعامل النقد بحكمة وتواضع. إن الإنسان الناجح لا يرفض النقد، بل يستفيد منه لتطوير نفسه. تقبل النقد هو علامة على النضج العاطفي والاجتماعي، ومن يجيد التعامل معه يحول كل ملاحظة إلى فرصة للنمو والتطور. لا تدع النقد يحطمك، بل اجعله وقودًا لتصبح أفضل.</t>
   </si>
   <si>
@@ -1118,9 +1058,6 @@
 الدليل: قال تعالى:“وَلَيَحْمِلُنَّ أَثْقَالَهُمْ وَأَثْقَالًا مَّعَ أَثْقَالِهِمْ ۖ وَلَيُسْأَلُنَّ يَوْمَ الْقِيَامَةِ عَمَّا كَانُوا يَفْتَرُونَ”
 مرجع الدليل: سورة العنكبوت، الآية 13
 </t>
-  </si>
-  <si>
-    <t>صحيح البخاري (893)</t>
   </si>
   <si>
     <t xml:space="preserve">عن عبد الله بن عمر رضي الله عنهما، قال: قال رسول الله ﷺ:
@@ -1140,9 +1077,6 @@
 “كلكم راعٍ وكلكم مسؤول عن رعيته؛ فالإمام راعٍ ومسؤول عن رعيته، والرجل راعٍ في أهله ومسؤول عن رعيته، والمرأة راعية في بيت زوجها ومسؤولة عن رعيتها، والخادم راعٍ في مال سيده ومسؤول عن رعيته
 مرجع الدليل: صحيح البخاري (893)
 </t>
-  </si>
-  <si>
-    <t>سورة القصص: الآية 77</t>
   </si>
   <si>
     <t xml:space="preserve">يأمرنا الله تعالى في هذه الآية أن نستثمر ما آتانا من النِّعم في طاعته، وأن نحسن إلى خلقه كما أحسن الله إلينا، فالنِّعم ليست للزينة بل للعمل، وليست للذات بل للأثر.
@@ -1168,9 +1102,6 @@
 </t>
   </si>
   <si>
-    <t>صحيح البخاري (4770)</t>
-  </si>
-  <si>
     <t>النبي ﷺ، حين أُمر بتبليغ الرسالة، صعد الجبل، ورفع صوته، وأعلن الحقّ بكل وضوح، لم يخفِ شخصيته،  ولم يخشَ التكذيب أو المعارضة، لأنه كان ممتثلًا لأمر ربه، ثابتًا على ما يؤمن به، وكان يعلم أن العزة لله جميعًا.أن تكون على حقيقتك لا يعني أن تكون مقبولًا لدى الجميع، لكنه يعني أن تكون صادقًا أولًا مع الله سبحانه وتعالى، ثم مع نفسك.الناس يتبدلون، والمجاملات تخف وتزول، لكن ما يبقى هو العمل الصالح، والنية الصادقة لله وحده.                                                                                    نعم، كلنا فينا ضعف وقوة، فينا ما نُظهره وما نخفيه، تأثرنا بمن حولنا، وبالبيئة، وبأحداث مررنا بها، لكن أن نكون صادقين، واضحين، غير متكلفين ولا متصنعين، تلك هي القوة الحقيقية.</t>
   </si>
   <si>
@@ -1206,9 +1137,6 @@
 </t>
   </si>
   <si>
-    <t>صحيح البخاري (5991)</t>
-  </si>
-  <si>
     <t>قال رسول الله ﷺ: "ليس الواصل بالمكافئ، ولكن الواصل الذي إذا قُطعت رحمه وصلها."</t>
   </si>
   <si>
@@ -1239,9 +1167,6 @@
 </t>
   </si>
   <si>
-    <t>صحيح البخاري (5228)</t>
-  </si>
-  <si>
     <t>كن دائمًا لطيفًا في فهمك للناس، واسع الصدر لما قد تخفيه قلوبهم، فليس كل صمت جفاء، ولا كل كلمة قاسية عناد، ربما تخفي خلفها ضعفًا لا يُقال، أو ألمًا لا يُفصح عنه، ومن يُحسن الظن، ويقرأ المواقف برحمة، يكسب القلوب قبل الكلمات، ويتقرب إلى الله بتعاملاته مع الناس، فكن كما يحب الله،  طيب القلب، جميل الظن، كريم النفس.</t>
   </si>
   <si>
@@ -1256,9 +1181,6 @@
 الدليل: عن عائشة رضي الله عنها، قالت:"قال لي رسول الله ﷺ: إني لأعلم إذا كنت عني راضية، وإذا كنت علي غضبى. فقلت: من أين تعرف ذلك؟ فقال: أما إذا كنت عني راضية، فإنك تقولين: لا ورب محمد، وإذا كنت غضبى، قلت: لا ورب إبراهيم. قلت: أجل، والله يا رسول الله، ما أهجر إلا اسمك."
 مرجع الدليل: صحيح البخاري (5228)
 </t>
-  </si>
-  <si>
-    <t>صحيح البخاري (53)</t>
   </si>
   <si>
     <t>عندما تستمع إلى الآخرين، لا تسمع بأذنك فقط، بل افتح قلبك قبل عقلك، وأدبك قبل لسانك، كما فعل النبي ﷺ مع وفد عبد القيس، فقد رحّب بهم بأطيب الكلمات، وأصغى إلى مخاوفهم، وأجاب عن أسئلتهم بكل وضوح ورحمة، فكان استماعه لهم مفتاحًا لقلوبهم وسببًا في هدايتهم، فلتكن في تواصلك مُحاورًا بإنصات، ومستمعًا برحابة صدر، فإن الكلمة الطيبة وحسن الإصغاء يُصلحان ما تعجز عنه الأجوبة الكثيرة.</t>
@@ -1279,9 +1201,6 @@
 </t>
   </si>
   <si>
-    <t>صحيح مسلم (54)</t>
-  </si>
-  <si>
     <t>ابدأ حديثك دائمًا بلطف وأدب، فالكلمة الطيبة مدخل إلى القلوب، وابتداء السلام دليل على حسن الخلق، ومن كان مبادِرًا إلى الخير فتح الله له قلوب الناس، وجعل خطواته مباركه,لا تنتظر من الآخرين أن يبدؤوا، بل كُن أنت من يضيء الطريق بالكلمة الطيبة والابتسامة الصادقة، فبذلك تتقرب إلى الله، وتُحسن إلى من حولك، وتبني جسور المحبة بلطفك وكرم أخلاقك</t>
   </si>
   <si>
@@ -1298,9 +1217,6 @@
 </t>
   </si>
   <si>
-    <t>سورة  القلم: الآية 4</t>
-  </si>
-  <si>
     <t>في هذه الآية، يمدح الله سبحانه وتعالى نبيه محمدًا صلى الله عليه وسلم، ويشهد له بعظمة الخلق، وهو الذي عاش بين قوم كانوا من أشد الناس أذى، وأعظمهم قسوة، وأكثرهم إيذاء للقلوب والعقول. ومع ذلك، صبر عليهم، وتحمّل أذاهم، ولم يكن يدقق في الزلات ولا يعاتب على العثرات، بل كان يمرر الأمور بحلمٍ عظيم، ورحمة واسعة، وتفهّم عميق لطبائع البشر وظروفهم. ولنا في هدي النبي صلى الله عليه وسلم أسوة حسنة. فإذا وجدت صعوبة في فهم من حولك، أو رأيت من تصرفاتهم ما يُحيّرك، فتذكّر أنهم، جميعهم، يمرون بظروف قد لا تظهر لك؛  فكل إنسان يحمل من الهموم والتحديات ما الله به عليم.</t>
   </si>
   <si>
@@ -1317,9 +1233,6 @@
 </t>
   </si>
   <si>
-    <t>صحيح البخاري( 6014)</t>
-  </si>
-  <si>
     <t xml:space="preserve">الجار ليس مجرد ساكن بجوارك، بل هو وصية نبوية حملها جبريل عليه السلام، وأحيَاها خلق النبي ﷺ في حياته.حقه أن يُسأل عن حاله، وأن يُحسن الجِوار له، ويُساند في شدّته، ويُبارك له في فرحه.ومن عظمة هذا الخلق أن الله جعله بابًا من أبواب البر، لا يغلقه إلا غافل، ولا يفتحه إلا كريم النفس.
 </t>
   </si>
@@ -1337,9 +1250,6 @@
 </t>
   </si>
   <si>
-    <t>صحيح البخاري( 2731.)</t>
-  </si>
-  <si>
     <t>الحوار الهادئ داخل الأسرة ليس رفاهية، بل ضرورة لبناء الثقة وفهم المشاعر وتقليل التوترات. الاستماع الجيد ومراعاة التوقيت والهدوء في النقاش تصنع فارقًا كبيرًا في استقرار العلاقة الأسرية</t>
   </si>
   <si>
@@ -1356,9 +1266,6 @@
 </t>
   </si>
   <si>
-    <t>صحيح البخاري ( 6038)</t>
-  </si>
-  <si>
     <t>استخدام القسوة أو العنف اللفظي والجسدي في تربية الأبناء يؤدي إلى كسر الثقة والرهبة بدل المحبة. التربية الفعالة تحتاج إلى صبر ورحمة، وتوضيح الخطأ بلغة هادئة وحازمة تزرع الاحترام دون خوف.</t>
   </si>
   <si>
@@ -1375,9 +1282,6 @@
 </t>
   </si>
   <si>
-    <t>صحيح البخاري (  676)</t>
-  </si>
-  <si>
     <t>حين يكون سلوكك منسجمًا مع أقوالك داخل الأسرة، فإنك تربي دون أن تتكلم، وتؤثر دون أن تأمر. القدوة تترك أثراً أعمق من أي توجيه لفظي، وتزرع القيم في نفوس من حولك دون جهد مباشر.</t>
   </si>
   <si>
@@ -1392,9 +1296,6 @@
 الدليل: عن الأسود قال: سألت عائشة: ما كان النبي صلى الله عليه وسلم يصنع في بيته؟ قالت:"كان يكون في مهنة أهله، فإذا حضرت الصلاة خرج إلى الصلاة."
 مرجع الدليل: صحيح البخاري (  676)
 </t>
-  </si>
-  <si>
-    <t>صحيح البخاري (  5997 )</t>
   </si>
   <si>
     <t>عن أبي هريرة رضي الله عنه قال:قبّل رسولُ اللهِ صلى الله عليه وسلم الحسنَ بن عليٍّ، وعنده الأقرعُ بنُ حابسٍ التميميُّ جالسًا، فقال الأقرعُ: إن لي عشرةً من الولدِ ما قبّلتُ منهم أحدًا.فنظر إليه رسولُ اللهِ صلى الله عليه وسلم، فقال:من لا يَرحُم لا يُرحَم</t>
@@ -1411,9 +1312,6 @@
 </t>
   </si>
   <si>
-    <t>صحيح البخاري (  6203 )</t>
-  </si>
-  <si>
     <t>التعامل مع مشاعر الأسرة، وخصوصًا الأبناء، بلطف واهتمام يصنع جيلًا حساسًا وإنسانيًا، قادرًا على فهم نفسه والآخرين. حين تُقدّر مشاعر الحزن أو الفقد أو الفرح، حتى في أبسط صورها، فإنك تزرع في قلوبهم الأمان العاطفي، والقدرة على التعبير، والاحترام المتبادل. تجاهل المشاعر، أو السخرية منها، يخلّف جراحًا صامتة يصعب التئامها.علّمنا النبي صلى الله عليه وسلم أن نهتم حتى بحزن طفل على طائر!</t>
   </si>
   <si>
@@ -1431,9 +1329,6 @@
 </t>
   </si>
   <si>
-    <t>صحيح البخاري (  3559 )</t>
-  </si>
-  <si>
     <t>الاعتذار لا يُنقص من قيمة الإنسان، بل يزيده احترامًا وهيبة، خاصة داخل الأسرة. من يعتذر عند الخطأ يُعلّم الآخرين التواضع، ويؤسس لثقافة صحية قائمة على الأخلاق والاحترام المتبادل .حين نغرس في بيوتنا خُلق الاعتذار، نربي أفرادًا يملكون الشجاعة للاعتراف، والحكمة لإصلاح العلاقة، والرقي الأخلاقي في التعامل. الاعتذار ليس ضعفًا، بل دليل على قوة الشخصية ونضج القلب.</t>
   </si>
   <si>
@@ -1448,9 +1343,6 @@
 الدليل: عن عبد الله بن عمرو رضي الله عنهما قال: "لم يكن النبي صلى الله عليه وسلم فاحشًا ولا متفحشًا، وكان يقول: إن من خياركم أحسنكم أخلاقًا."
 مرجع الدليل: صحيح البخاري (  3559 )
 </t>
-  </si>
-  <si>
-    <t>صحيح البخاري (  6241)</t>
   </si>
   <si>
     <t xml:space="preserve">حترام خصوصية من نعيش معهم هو أساس الأمان والراحة في البيت.الاستئذان، وغض البصر، واللباقة في الدخول والخروج، ليست فقط سلوكيات راقية، بل هي علامات محبة ووعي ونُبل في العلاقات. الخصوصية لا تُطلب، بل تُحترم دون أن يُقال. ومن راعى خصوصية من يحب، حافظ على قلوبهم وثقتهم وارتاح معهم عمرًا.
@@ -1472,9 +1364,6 @@
 </t>
   </si>
   <si>
-    <t>صحيح البخاري (  6035 )</t>
-  </si>
-  <si>
     <t xml:space="preserve">في زمن كثر فيه الصراخ، وقلّ فيه الاحتواء ,نحتاج أن نُعيد للتربية معناها، وللكلمة الطيبة أثرها. راقب حولك: كم من طفل فقد ثقته بنفسه بسبب كلمة قاسية؟القلوب لا تُهذّب بالعنف، بل بالرحمة، والنجاح لا يُبنى بالخوف، بل بالحب.كُن ذلك المربي الذي يُصلح دون أن يُهين، ويُوجّه دون أن يُؤلم، ويُربي بعقله وقلبه معًا.فكل كلمة تقولها، وكل تصرف تصنعه… إما أن يبني قلبًا، أو يُخدش أثره سنين.
 </t>
   </si>
@@ -1490,9 +1379,6 @@
 الدليل: عن أنس بن مالك رضي الله عنه قال:"خدمت النبي صلى الله عليه وسلم عشر سنين، فما قال لي أُفٍّ قط، وما قال لي لشيء فعلته: لِمَ فعلته؟ ولا لشيء لم أفعله: ألا فعلت كذا؟"
 مرجع الدليل: صحيح البخاري (  6035 )
 </t>
-  </si>
-  <si>
-    <t>صحيح البخاري (  3818 )</t>
   </si>
   <si>
     <t xml:space="preserve">من صور الوفاء والاحترام بين الزوجين أن يُكرّم كل طرف أهل الطرف الآخر، وأن يُظهر الامتنان لمن كان له أثر في حياة من يحب. الاحترام المتبادل للأهل لا يعني مجرد المجاملة، بل هو دليل نضج، وامتداد للرحمة داخل العلاقة.
@@ -1514,9 +1400,6 @@
 </t>
   </si>
   <si>
-    <t>صحيح البخاري (  2351 )</t>
-  </si>
-  <si>
     <t xml:space="preserve">تربية الأبناء لا تقتصر على التوجيه والنصح، بل تحتاج إلى إشعار الطفل بقيمته، وإعطائه مساحة للتعبير والمشاركة. حين نعامل أبناءنا كما كان يعاملهم النبي ﷺ – بلين، وتشجيع، واحترام – فإننا نغرس فيهم الثقة، ونصنع قادة لا تابعين.التحفيز بالكلمة، والثناء على المواقف الطيبة، ومشاركتهم في اتخاذ القرار، كلها مفاتيح لبناء شخصية مستقلة راقية.فالبيت الذي يربي على هدي النبوة، هو البيت الذي يخرج للعالم أناسًا متزنين، نافعين، سعداء.
 </t>
   </si>
@@ -1533,9 +1416,6 @@
 الدليل: عن سهل بن سعد رضي الله عنه قال: أُتي النبي صلى الله عليه وسلم بقدح فشرب منه، وعن يمينه غلام – وهو أصغر القوم – والأشياخ عن يساره، فقال: "يا غلام، أتأذن لي أن أعطِيَهُ الأشياخ؟" قال : ما كنت لأُوثِرَ بفضلي منك أحدًا، يا رسول الله. فأعطاهُ إياه.
 مرجع الدليل: صحيح البخاري (  2351 )
 </t>
-  </si>
-  <si>
-    <t>صحيح البخاري (  676 )</t>
   </si>
   <si>
     <t xml:space="preserve">الأسرة لا تنمو فقط بالإنفاق والرعاية، بل تنمو بالحضور، بالكلمة، باللحظة الصادقة.الوقت الذي تقضيه مع أهلك ليس فائضًا من يومك، بل هو أساس تماسك الأسرة وسلامها النفسي النبي صلى الله عليه وسلم – وهو من يحمل أعباء الأمة – كان يجد وقتًا ليكون في خدمة أهله، فكيف بنا؟ خصص وقتًا بسيطًا كل يوم، بدون هاتف، بدون انشغال، فقط لأهلك.اجعل من وجودك نعمة يشعرون بها، لا غيابًا يصعب تفسيره.
@@ -1576,9 +1456,6 @@
 </t>
   </si>
   <si>
-    <t>صحيح الجامع (  3314 )</t>
-  </si>
-  <si>
     <t>عن النبي صلى الله عليه وسلم قال: "خَيْرُكُمْ خَيْرُكُمْ لِأَهْلِهِ، وَأَنَا خَيْرُكُمْ لِأَهْلِي."</t>
   </si>
   <si>
@@ -1596,9 +1473,6 @@
 </t>
   </si>
   <si>
-    <t>صحيح البخاري (  1312 )</t>
-  </si>
-  <si>
     <t xml:space="preserve">حين مرت جنازة يهودي، وقف لها النبي ﷺ، فلما قيل له: "إنها جنازة يهودي"، قال: "أليست نفسًا؟"في تلك اللحظة، لم يكن الموقف مجرد وقوف، بل كان درسًا خالدًا في الرحمة، والاحترام، وإنسانية التعامل.إن التعامل مع غير المسلم لا يُبنى على الاتفاق في الدين، بل على الاتفاق في أصل الخَلق فإن أردت أن تُعبّر عن الإسلام حقًا، فلتكن أفعالك خُلقًا، واحترامك رسالة، ولتكن أنت في أعينهم مرآة دينك.
 </t>
   </si>
@@ -1640,9 +1514,6 @@
 {لَقَدْ كَانَ فِي قَصَصِهِمْ عِبْرَةٌ لِأُولِي الْأَلْبَابِ}
 مرجع الدليل: سورة يوسف، الآية 111
 </t>
-  </si>
-  <si>
-    <t>صحيح البخاري (  4469 )</t>
   </si>
   <si>
     <t xml:space="preserve">لكل فردٍ قدراته التي وهبها الله له، وما أعظم أن يراها المربي بعين البصيرة، لا بعين التعميم.
@@ -1668,9 +1539,6 @@
 "بعث النبي صلى الله عليه وسلم بعثًا وأمر عليهم أسامة بن زيد، فطعن بعض الناس في إمارته، فقال النبي صلى الله عليه وسلم: إن تطعنوا في إمارته فقد كنتم تطعنون في إمارة أبيه من قبل، وايمُ الله، إن كان لخليقًا للإمارة، وإن كان لمن أحب الناس إلي، وإن هذا لمن أحب الناس إلي بعده."
 مرجع الدليل: صحيح البخاري (  4469 )
 </t>
-  </si>
-  <si>
-    <t>صحيح البخاري (  5809 )</t>
   </si>
   <si>
     <t xml:space="preserve">في كل حوارٍ حادّ أو موقفٍ مستفز، لديك خيار: أن ترد بعصبية فتزيد النار اشتعالًا، أو أن ترد بأدبٍ وتوازن فتُطفئ النزاع وتفتح باب الحل.
@@ -1702,9 +1570,6 @@
 </t>
   </si>
   <si>
-    <t>صحيح البخاري (  3905 )</t>
-  </si>
-  <si>
     <t xml:space="preserve">ما أكرمَ أن يجمع الإنسان بين إحكام التخطيط، وصدق التوكل… فذلك خُلق من نهل من مدرسة النبوة.
 فليس من الحكمة أن نخوض القرارات الكبرى بعشوائية، أو نعلّق ضعفنا في التدبير على مشجب التوكل.
 النبي ﷺ وهو خير المتوكلين، لم يخرج من مكة إلا وقد أحكم كل تفصيل، ثم أسلم قلبه لله.
@@ -1730,9 +1595,6 @@
 "فجهزناهما أحث الجهاز، وصنعنا لهما سفرة في جراب، فقطعت أسماء بنت أبي بكر قطعة من نطاقها، فربطت به على فم الجراب، فبذلك سميت ذات النطاقين. قالت: ثم لحق رسول الله ﷺ وأبو بكر بغار في جبل ثور، فكمنا فيه ثلاث ليال، يبيت عندهما عبد الله بن أبي بكر، وهو غلام شاب ثقف لقن،  فيُدلج مِن عندهما بسَحر فيصبح مع قريش بمكة كبائت، فلا يسمع أمرًا يُكادان به إلا وعاه، حتى يأتيهما بخبر ذلك حين يختلط الظلام. .....إلخ"
 مرجع الدليل: صحيح البخاري (  3905 )
 </t>
-  </si>
-  <si>
-    <t>صحيح البخاري (  5362 )</t>
   </si>
   <si>
     <t>حين يكبر الأبناء وتنتقل حياتهم إلى مرحلة جديدة، فإن دور الوالدين لا ينتهي، بل يتجلّى في صورة أنضج وألطف…
@@ -1823,12 +1685,147 @@
 وإننا حين نحسن إلى أهلنا، نرتقي في إنسانيتنا، ونقترب من هدي خير البشر ﷺ.
 إن التواصل هو في ذاته عبادة، وأثره في النفوس لا يُقدّر بثمن.</t>
   </si>
+  <si>
+    <t>صحيح البخاري 6029</t>
+  </si>
+  <si>
+    <t>صحيح البخاري,1</t>
+  </si>
+  <si>
+    <t>سورة الذاريات,الآية56</t>
+  </si>
+  <si>
+    <t>صحيح البخاري , 7504</t>
+  </si>
+  <si>
+    <t>صحيح الجامع, 4515</t>
+  </si>
+  <si>
+    <t>صحيح البخاري,6412</t>
+  </si>
+  <si>
+    <t>صحيح البخاري,6114</t>
+  </si>
+  <si>
+    <t>سنن لإبن ماجة,4008</t>
+  </si>
+  <si>
+    <t>صحيح البخاري ,6369</t>
+  </si>
+  <si>
+    <t>صحيح مسلم,2664</t>
+  </si>
+  <si>
+    <t>صحيح البخاري,6133</t>
+  </si>
+  <si>
+    <t>صحيح البخاري,6487</t>
+  </si>
+  <si>
+    <t>صحيح البخاري,1968</t>
+  </si>
+  <si>
+    <t>صحيح البخاري ,13</t>
+  </si>
+  <si>
+    <t>صحيح جامع,73</t>
+  </si>
+  <si>
+    <t>صحيح البخاري,2872</t>
+  </si>
+  <si>
+    <t>سورةاالبقرة,الآية 155</t>
+  </si>
+  <si>
+    <t>صحيح البخاري( 1240), صحيح مسلم ( 2162)</t>
+  </si>
+  <si>
+    <t>صحيح مسلم ,2162</t>
+  </si>
+  <si>
+    <t>صحيح البخاري ,893</t>
+  </si>
+  <si>
+    <t>سورة القصص,الآية 77</t>
+  </si>
+  <si>
+    <t>صحيح البخاري ,4770</t>
+  </si>
+  <si>
+    <t>صحيح البخاري ,5991</t>
+  </si>
+  <si>
+    <t>صحيح البخاري,5228</t>
+  </si>
+  <si>
+    <t>صحيح البخاري ,53</t>
+  </si>
+  <si>
+    <t>صحيح مسلم ,54</t>
+  </si>
+  <si>
+    <t>سورة  القلم, الآية 4</t>
+  </si>
+  <si>
+    <t>صحيح البخاري, 6014</t>
+  </si>
+  <si>
+    <t>صحيح البخاري, 2731</t>
+  </si>
+  <si>
+    <t>صحيح البخاري, 6038</t>
+  </si>
+  <si>
+    <t>صحيح البخاري,  676</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صحيح البخاري, 5997 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">صحيح البخاري , 6203 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">صحيح البخاري , 3559 </t>
+  </si>
+  <si>
+    <t>صحيح البخاري,  6241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صحيح البخاري, 6035 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">صحيح البخاري,  3818 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">صحيح البخاري, 2351 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">صحيح البخاري ,  676 </t>
+  </si>
+  <si>
+    <t>صحيح الجامع,  3314</t>
+  </si>
+  <si>
+    <t>صحيح البخاري, 1312</t>
+  </si>
+  <si>
+    <t>صحيح البخاري,  4469</t>
+  </si>
+  <si>
+    <t xml:space="preserve">صحيح البخاري , 5809 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">صحيح البخاري , 3905 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">صحيح البخاري, 5362 </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1840,6 +1837,12 @@
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2190,16 +2193,17 @@
   <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" zoomScale="60" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="54.6640625" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" customWidth="1"/>
-    <col min="5" max="5" width="20.75" customWidth="1"/>
-    <col min="6" max="6" width="34.5" customWidth="1"/>
+    <col min="1" max="1" width="33.83203125" customWidth="1"/>
+    <col min="2" max="2" width="60.25" customWidth="1"/>
+    <col min="3" max="3" width="84" customWidth="1"/>
+    <col min="4" max="4" width="55.83203125" customWidth="1"/>
+    <col min="5" max="5" width="64.9140625" customWidth="1"/>
+    <col min="6" max="6" width="104.08203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2290,7 +2294,7 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
       <c r="D5" t="s">
         <v>24</v>
@@ -2404,222 +2408,222 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>392</v>
+      </c>
+      <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>53</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>379</v>
+      </c>
+      <c r="C12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" t="s">
-        <v>425</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
         <v>58</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
         <v>60</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>61</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>62</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
         <v>63</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>66</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>67</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
         <v>68</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>393</v>
+      </c>
+      <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
         <v>70</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>71</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
         <v>72</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
         <v>75</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>76</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
         <v>77</v>
-      </c>
-      <c r="D16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" t="s">
+        <v>380</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
         <v>80</v>
       </c>
-      <c r="B17" t="s">
-        <v>426</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
         <v>81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>394</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" t="s">
         <v>84</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
         <v>85</v>
-      </c>
-      <c r="C18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
         <v>89</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
         <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>91</v>
-      </c>
-      <c r="D19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" t="s">
         <v>94</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" t="s">
         <v>95</v>
-      </c>
-      <c r="C20" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" t="s">
-        <v>97</v>
-      </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" t="s">
         <v>99</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" t="s">
         <v>100</v>
-      </c>
-      <c r="C21" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -2627,1342 +2631,1343 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>427</v>
+        <v>381</v>
       </c>
       <c r="C22" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" t="s">
         <v>107</v>
       </c>
-      <c r="B23" t="s">
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
         <v>108</v>
-      </c>
-      <c r="C23" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>395</v>
+      </c>
+      <c r="B24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
         <v>112</v>
-      </c>
-      <c r="B24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" t="s">
-        <v>115</v>
-      </c>
-      <c r="E24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
         <v>117</v>
-      </c>
-      <c r="B25" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" t="s">
+        <v>121</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
         <v>122</v>
-      </c>
-      <c r="B26" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F26" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>396</v>
       </c>
       <c r="B27" t="s">
-        <v>428</v>
+        <v>382</v>
       </c>
       <c r="C27" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D27" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E27" t="s">
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>131</v>
+        <v>396</v>
       </c>
       <c r="B28" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" t="s">
+        <v>127</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
         <v>128</v>
-      </c>
-      <c r="D28" t="s">
-        <v>133</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C29" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E29" t="s">
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>140</v>
+        <v>397</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E30" t="s">
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B31" t="s">
-        <v>429</v>
+        <v>383</v>
       </c>
       <c r="C31" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D31" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E31" t="s">
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>398</v>
       </c>
       <c r="B32" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C32" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D32" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E32" t="s">
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>154</v>
+        <v>399</v>
       </c>
       <c r="B33" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="C33" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E33" t="s">
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>159</v>
+        <v>400</v>
       </c>
       <c r="B34" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C34" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E34" t="s">
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B35" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C35" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D35" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E35" t="s">
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>169</v>
+        <v>401</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C36" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D36" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E36" t="s">
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D37" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="E37" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>179</v>
+        <v>402</v>
       </c>
       <c r="B38" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C38" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D38" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E38" t="s">
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="98" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>430</v>
+        <v>384</v>
       </c>
       <c r="C39" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E39" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>169</v>
+        <v>401</v>
       </c>
       <c r="B40" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C40" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D40" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="E40" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B41" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="C41" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="D41" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="E41" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B42" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C42" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D42" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B43" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="D43" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="E43" t="s">
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B44" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C44" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D44" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E44" t="s">
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>211</v>
+        <v>403</v>
       </c>
       <c r="B45" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="D45" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E45" t="s">
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>216</v>
+        <v>404</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="C46" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D46" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B47" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C47" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D47" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="E47" t="s">
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>226</v>
+        <v>405</v>
       </c>
       <c r="B48" t="s">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="C48" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D48" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E48" t="s">
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B49" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C49" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D49" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E49" t="s">
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C50" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D50" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="E50" t="s">
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>240</v>
+        <v>406</v>
       </c>
       <c r="B51" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="C51" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D51" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E51" t="s">
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>245</v>
+        <v>407</v>
       </c>
       <c r="B52" t="s">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C52" t="s">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="D52" t="s">
-        <v>248</v>
+        <v>231</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>249</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>250</v>
+        <v>408</v>
       </c>
       <c r="B53" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="C53" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="D53" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="E53" t="s">
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>255</v>
+        <v>409</v>
       </c>
       <c r="B54" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C54" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D54" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="E54" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F54" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
       <c r="B55" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="C55" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="D55" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="E55" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F55" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="B56" t="s">
-        <v>432</v>
+        <v>386</v>
       </c>
       <c r="C56" t="s">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="D56" t="s">
-        <v>268</v>
+        <v>249</v>
       </c>
       <c r="E56" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F56" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>270</v>
+        <v>410</v>
       </c>
       <c r="B57" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="C57" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="D57" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E57" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F57" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="B58" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="C58" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="D58" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="E58" t="s">
+        <v>240</v>
+      </c>
+      <c r="F58" t="s">
         <v>259</v>
-      </c>
-      <c r="F58" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>280</v>
+        <v>411</v>
       </c>
       <c r="B59" t="s">
-        <v>433</v>
+        <v>387</v>
       </c>
       <c r="C59" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="D59" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="E59" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F59" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>285</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="C60" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="D60" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="E60" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F60" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>290</v>
+        <v>413</v>
       </c>
       <c r="B61" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="C61" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="D61" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="E61" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F61" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>169</v>
+        <v>401</v>
       </c>
       <c r="B62" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="C62" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="D62" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
       <c r="E62" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F62" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>299</v>
+        <v>414</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>434</v>
+        <v>388</v>
       </c>
       <c r="C63" t="s">
-        <v>300</v>
+        <v>276</v>
       </c>
       <c r="D63" t="s">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="E63" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F63" t="s">
-        <v>302</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B64" t="s">
-        <v>303</v>
+        <v>279</v>
       </c>
       <c r="C64" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="D64" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="E64" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F64" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>307</v>
+        <v>415</v>
       </c>
       <c r="B65" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
       <c r="C65" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
       <c r="D65" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="E65" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F65" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>312</v>
+        <v>416</v>
       </c>
       <c r="B66" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="C66" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="D66" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="E66" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F66" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>317</v>
+        <v>417</v>
       </c>
       <c r="B67" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="C67" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="D67" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="E67" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F67" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>322</v>
+        <v>418</v>
       </c>
       <c r="B68" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="C68" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="D68" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="E68" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F68" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>327</v>
+        <v>419</v>
       </c>
       <c r="B69" t="s">
-        <v>328</v>
+        <v>299</v>
       </c>
       <c r="C69" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="D69" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
       <c r="E69" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F69" t="s">
-        <v>331</v>
+        <v>302</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>332</v>
+        <v>420</v>
       </c>
       <c r="B70" t="s">
-        <v>333</v>
+        <v>303</v>
       </c>
       <c r="C70" t="s">
-        <v>334</v>
+        <v>304</v>
       </c>
       <c r="D70" t="s">
-        <v>335</v>
+        <v>305</v>
       </c>
       <c r="E70" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F70" t="s">
-        <v>336</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>337</v>
+        <v>421</v>
       </c>
       <c r="B71" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="C71" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="D71" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="E71" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F71" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>342</v>
+        <v>422</v>
       </c>
       <c r="B72" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="C72" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="D72" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="E72" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F72" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="126" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>347</v>
+        <v>423</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>435</v>
+        <v>389</v>
       </c>
       <c r="C73" t="s">
-        <v>348</v>
+        <v>315</v>
       </c>
       <c r="D73" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
       <c r="E73" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F73" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>351</v>
+        <v>424</v>
       </c>
       <c r="B74" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="C74" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
       <c r="D74" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
       <c r="E74" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F74" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="B75" t="s">
-        <v>357</v>
+        <v>322</v>
       </c>
       <c r="C75" t="s">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="D75" t="s">
-        <v>359</v>
+        <v>324</v>
       </c>
       <c r="E75" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F75" t="s">
-        <v>360</v>
+        <v>325</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>361</v>
+        <v>426</v>
       </c>
       <c r="B76" t="s">
-        <v>362</v>
+        <v>326</v>
       </c>
       <c r="C76" t="s">
-        <v>363</v>
+        <v>327</v>
       </c>
       <c r="D76" t="s">
-        <v>364</v>
+        <v>328</v>
       </c>
       <c r="E76" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F76" t="s">
-        <v>365</v>
+        <v>329</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>366</v>
+        <v>427</v>
       </c>
       <c r="B77" t="s">
-        <v>367</v>
+        <v>330</v>
       </c>
       <c r="C77" t="s">
-        <v>368</v>
+        <v>331</v>
       </c>
       <c r="D77" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="E77" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F77" t="s">
-        <v>370</v>
+        <v>333</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>371</v>
+        <v>428</v>
       </c>
       <c r="B78" t="s">
-        <v>372</v>
+        <v>334</v>
       </c>
       <c r="C78" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="D78" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="E78" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F78" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="B79" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="C79" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="D79" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="E79" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F79" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>381</v>
+        <v>430</v>
       </c>
       <c r="B80" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="C80" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="D80" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="E80" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F80" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="154" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>436</v>
+        <v>390</v>
       </c>
       <c r="C81" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="D81" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="E81" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F81" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="182" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="C82" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="D82" t="s">
-        <v>392</v>
+        <v>351</v>
       </c>
       <c r="E82" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F82" t="s">
-        <v>393</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="B83" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="C83" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="D83" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="E83" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="F83" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="B84" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="C84" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="D84" t="s">
-        <v>402</v>
+        <v>360</v>
       </c>
       <c r="E84" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F84" t="s">
-        <v>403</v>
+        <v>361</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="B85" t="s">
-        <v>405</v>
+        <v>362</v>
       </c>
       <c r="C85" t="s">
-        <v>406</v>
+        <v>363</v>
       </c>
       <c r="D85" t="s">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="E85" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F85" t="s">
-        <v>408</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="B86" t="s">
-        <v>410</v>
+        <v>366</v>
       </c>
       <c r="C86" t="s">
-        <v>411</v>
+        <v>367</v>
       </c>
       <c r="D86" t="s">
-        <v>412</v>
+        <v>368</v>
       </c>
       <c r="E86" t="s">
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>413</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
       <c r="B87" t="s">
-        <v>415</v>
+        <v>370</v>
       </c>
       <c r="C87" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
       <c r="D87" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="E87" t="s">
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>418</v>
+        <v>373</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>419</v>
+        <v>436</v>
       </c>
       <c r="B88" t="s">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="C88" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="D88" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="E88" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="F88" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>